--- a/src/test/Reports/SmokeTest/smokeTestReport.xlsx
+++ b/src/test/Reports/SmokeTest/smokeTestReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\07_Work_Study\04_Coding\01_Java_Projects\bank-automation-testing\bank-automation-testing\src\test\Reports\SmokeTest\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,19 +36,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>DATE</t>
   </si>
   <si>
     <t>Bank App Primary Features</t>
   </si>
+  <si>
+    <t>Test the user is able to login and test the primary navigation feature of the application.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +60,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,22 +437,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="79.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45310</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
